--- a/products/fixtures/XH21.xlsx
+++ b/products/fixtures/XH21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\products\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE2B15-26E4-47C8-99B2-1DD3F91EA942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6663BD9-D84D-4762-A99A-B35F111D6380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,36 +298,6 @@
     <t>Naamblok KUDUS</t>
   </si>
   <si>
-    <t>Nr. 0 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 1 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 2 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 3 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 4 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 5 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 6 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 7 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 8 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 9 (short)</t>
-  </si>
-  <si>
     <t>XH21</t>
   </si>
   <si>
@@ -925,36 +895,6 @@
     <t>XH210900</t>
   </si>
   <si>
-    <t>Nr. 0 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 1 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 2 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 3 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 4 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 5 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 6 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 7 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 8 (baby)</t>
-  </si>
-  <si>
-    <t>Nr. 9 (baby)</t>
-  </si>
-  <si>
     <t>XH210901</t>
   </si>
   <si>
@@ -1076,6 +1016,66 @@
   </si>
   <si>
     <t>74053845</t>
+  </si>
+  <si>
+    <t>Nr. 0 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 1 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 2 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 3 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 4 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 5 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 6 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 7 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 8 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 9 (short 2)</t>
+  </si>
+  <si>
+    <t>Nr. 0 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 1 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 2 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 3 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 4 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 5 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 6 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 7 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 8 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>Nr. 9 (short 1 - baby)</t>
   </si>
 </sst>
 </file>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>99701577</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1600,15 +1600,15 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1629,15 +1629,15 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1658,15 +1658,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1687,15 +1687,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1716,15 +1716,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1745,15 +1745,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1774,15 +1774,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1803,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1832,15 +1832,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1861,15 +1861,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1890,15 +1890,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1919,15 +1919,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1948,15 +1948,15 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1977,15 +1977,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2006,15 +2006,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2035,15 +2035,15 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2064,15 +2064,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2093,15 +2093,15 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2122,15 +2122,15 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2151,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2180,15 +2180,15 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2209,15 +2209,15 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2238,15 +2238,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2267,15 +2267,15 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2296,15 +2296,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2325,15 +2325,15 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2354,15 +2354,15 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2383,15 +2383,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2412,15 +2412,15 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2441,15 +2441,15 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2470,15 +2470,15 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2499,15 +2499,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2528,15 +2528,15 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2557,15 +2557,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2586,15 +2586,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2615,15 +2615,15 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -2644,15 +2644,15 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2673,15 +2673,15 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2702,15 +2702,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2731,15 +2731,15 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2760,15 +2760,15 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2789,15 +2789,15 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2818,15 +2818,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2847,15 +2847,15 @@
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2876,15 +2876,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2934,15 +2934,15 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2963,15 +2963,15 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2992,15 +2992,15 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3021,15 +3021,15 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3050,15 +3050,15 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3079,15 +3079,15 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3108,15 +3108,15 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3137,15 +3137,15 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>97310114</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -3302,10 +3302,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3378,7 +3378,7 @@
         <v>46868161</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>31361931</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>95376582</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>41491837</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -3782,10 +3782,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J79">
         <v>2</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3858,7 +3858,7 @@
         <v>18712761</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -3878,19 +3878,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -3902,24 +3902,24 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -3931,24 +3931,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -3960,24 +3960,24 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -3989,24 +3989,24 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -4018,24 +4018,24 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -4047,24 +4047,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -4076,24 +4076,24 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -4105,24 +4105,24 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E89" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -4134,24 +4134,24 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -4163,24 +4163,24 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -4192,24 +4192,24 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -4221,24 +4221,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -4250,24 +4250,24 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E94" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4279,24 +4279,24 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -4308,24 +4308,24 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -4337,24 +4337,24 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -4366,24 +4366,24 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>339</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -4395,24 +4395,24 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -4424,24 +4424,24 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -4453,15 +4453,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -4482,15 +4482,15 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -4511,15 +4511,15 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -4540,15 +4540,15 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -4569,15 +4569,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -4598,21 +4598,21 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
         <v>86</v>
@@ -4627,15 +4627,15 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -4656,15 +4656,15 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -4685,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4714,15 +4714,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -4743,15 +4743,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -4772,15 +4772,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -4801,15 +4801,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -4830,15 +4830,15 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -4859,21 +4859,21 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E115" t="s">
         <v>85</v>
@@ -4888,15 +4888,15 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4917,15 +4917,15 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -4946,15 +4946,15 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -4975,15 +4975,15 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -5004,15 +5004,15 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/products/fixtures/XH21.xlsx
+++ b/products/fixtures/XH21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\products\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6663BD9-D84D-4762-A99A-B35F111D6380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10D36C-1D8A-4E5C-932A-16D9EF971378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="360" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products.ProductItem" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="338">
   <si>
     <t>slug</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Naamblok BLIND</t>
   </si>
   <si>
-    <t>Naamblok BROBBEY</t>
-  </si>
-  <si>
     <t>Naamblok EKKELENKAMP</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>XH2106BD</t>
   </si>
   <si>
-    <t>XH2106BY</t>
-  </si>
-  <si>
     <t>XH2106EP</t>
   </si>
   <si>
@@ -517,9 +511,6 @@
     <t>XH2106TC</t>
   </si>
   <si>
-    <t>XH2106TE</t>
-  </si>
-  <si>
     <t>XH2106TO</t>
   </si>
   <si>
@@ -616,24 +607,15 @@
     <t>XH212509</t>
   </si>
   <si>
-    <t>Naamblok IDRISSI</t>
-  </si>
-  <si>
     <t>Naamblok RENSCH</t>
   </si>
   <si>
     <t>Naamblok MARTÍNEZ</t>
   </si>
   <si>
-    <t>Naamblok TRAORÉ</t>
-  </si>
-  <si>
     <t>Naamblok ÁLVAREZ</t>
   </si>
   <si>
-    <t>XH2106II</t>
-  </si>
-  <si>
     <t>XH2106RH</t>
   </si>
   <si>
@@ -742,9 +724,6 @@
     <t>articles/XH2106BD.svg</t>
   </si>
   <si>
-    <t>articles/XH2106BY.svg</t>
-  </si>
-  <si>
     <t>articles/XH2106EP.svg</t>
   </si>
   <si>
@@ -754,9 +733,6 @@
     <t>articles/XH2106HE.svg</t>
   </si>
   <si>
-    <t>articles/XH2106II.svg</t>
-  </si>
-  <si>
     <t>articles/XH2106JR.svg</t>
   </si>
   <si>
@@ -790,9 +766,6 @@
     <t>articles/XH2106TC.svg</t>
   </si>
   <si>
-    <t>articles/XH2106TE.svg</t>
-  </si>
-  <si>
     <t>articles/XH2106TO.svg</t>
   </si>
   <si>
@@ -952,72 +925,6 @@
     <t>articles/XH210909.svg</t>
   </si>
   <si>
-    <t>03748807</t>
-  </si>
-  <si>
-    <t>02698366</t>
-  </si>
-  <si>
-    <t>07366639</t>
-  </si>
-  <si>
-    <t>74567593</t>
-  </si>
-  <si>
-    <t>84328556</t>
-  </si>
-  <si>
-    <t>00708985</t>
-  </si>
-  <si>
-    <t>69541953</t>
-  </si>
-  <si>
-    <t>62387771</t>
-  </si>
-  <si>
-    <t>75586895</t>
-  </si>
-  <si>
-    <t>82086884</t>
-  </si>
-  <si>
-    <t>98132593</t>
-  </si>
-  <si>
-    <t>37519096</t>
-  </si>
-  <si>
-    <t>08226602</t>
-  </si>
-  <si>
-    <t>78748553</t>
-  </si>
-  <si>
-    <t>46355701</t>
-  </si>
-  <si>
-    <t>53341886</t>
-  </si>
-  <si>
-    <t>44741835</t>
-  </si>
-  <si>
-    <t>90991859</t>
-  </si>
-  <si>
-    <t>52739881</t>
-  </si>
-  <si>
-    <t>90950994</t>
-  </si>
-  <si>
-    <t>45810217</t>
-  </si>
-  <si>
-    <t>74053845</t>
-  </si>
-  <si>
     <t>Nr. 0 (short 2)</t>
   </si>
   <si>
@@ -1076,13 +983,64 @@
   </si>
   <si>
     <t>Nr. 9 (short 1 - baby)</t>
+  </si>
+  <si>
+    <t>XH2106FJ</t>
+  </si>
+  <si>
+    <t>01680290</t>
+  </si>
+  <si>
+    <t>06708307</t>
+  </si>
+  <si>
+    <t>07792859</t>
+  </si>
+  <si>
+    <t>07897336</t>
+  </si>
+  <si>
+    <t>06472606</t>
+  </si>
+  <si>
+    <t>01799460</t>
+  </si>
+  <si>
+    <t>09551995</t>
+  </si>
+  <si>
+    <t>04621981</t>
+  </si>
+  <si>
+    <t>05636910</t>
+  </si>
+  <si>
+    <t>03739906</t>
+  </si>
+  <si>
+    <t>02377672</t>
+  </si>
+  <si>
+    <t>01166068</t>
+  </si>
+  <si>
+    <t>01647597</t>
+  </si>
+  <si>
+    <t>00812642</t>
+  </si>
+  <si>
+    <t>Naamblok FRITZ-JIM</t>
+  </si>
+  <si>
+    <t>articles/XH2106FJ.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,11 +1059,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1133,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,20 +1098,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1423,7 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="22" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1492,7 +1442,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1515,20 +1465,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>205</v>
+      <c r="A2" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>99701577</v>
+      <c r="D2" s="8">
+        <v>23851652</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1540,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>93</v>
+      <c r="A3" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
-        <v>66294575</v>
+      <c r="D3" s="8">
+        <v>26626837</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -1570,22 +1520,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
+      <c r="A4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
-        <v>23463452</v>
+      <c r="D4" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1600,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
+      <c r="A5" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>41003681</v>
+      <c r="D5" s="8">
+        <v>17118523</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1629,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>96</v>
+      <c r="A6" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <v>25497166</v>
+      <c r="D6" s="8">
+        <v>22903541</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1658,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>97</v>
+      <c r="A7" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>63547363</v>
+      <c r="D7" s="8">
+        <v>73796351</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1687,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
+      <c r="A8" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>55181312</v>
+      <c r="D8" s="8">
+        <v>81244771</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1716,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
+      <c r="A9" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>63057604</v>
+      <c r="D9" s="8">
+        <v>12021581</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1745,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>100</v>
+      <c r="A10" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>215169</v>
+      <c r="D10" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1774,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>101</v>
+      <c r="A11" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>69063528</v>
+      <c r="D11" s="8">
+        <v>28982369</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1803,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
+      <c r="A12" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
-        <v>68940053</v>
+      <c r="D12" s="8">
+        <v>29774299</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1832,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>103</v>
+      <c r="A13" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
-        <v>912140</v>
+      <c r="D13" s="8">
+        <v>24650637</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1861,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>104</v>
+      <c r="A14" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
-        <v>87052367</v>
+      <c r="D14" s="8">
+        <v>91570464</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1890,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>105</v>
+      <c r="A15" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
-        <v>58410124</v>
+      <c r="D15" s="8">
+        <v>56979371</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1919,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>106</v>
+      <c r="A16" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
-        <v>49153691</v>
+      <c r="D16" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -1948,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>107</v>
+      <c r="A17" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
-        <v>28437697</v>
+      <c r="D17" s="8">
+        <v>48473190</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -1977,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
+      <c r="A18" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
-        <v>68493865</v>
+      <c r="D18" s="8">
+        <v>58355906</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -2006,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>109</v>
+      <c r="A19" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="10">
-        <v>72062139</v>
+      <c r="D19" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -2035,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>110</v>
+      <c r="A20" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
-        <v>74486054</v>
+      <c r="D20" s="8">
+        <v>38188112</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -2064,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>111</v>
+      <c r="A21" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="10">
-        <v>94863215</v>
+      <c r="D21" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -2093,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A22" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="10">
-        <v>92216569</v>
+      <c r="D22" s="8">
+        <v>90333685</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2122,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>113</v>
+      <c r="A23" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
-        <v>2233360</v>
+      <c r="D23" s="8">
+        <v>45361385</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -2151,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>114</v>
+      <c r="A24" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="10">
-        <v>47581048</v>
+      <c r="D24" s="8">
+        <v>83957377</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
@@ -2180,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="A25" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="10">
-        <v>33537183</v>
+      <c r="D25" s="8">
+        <v>44288505</v>
       </c>
       <c r="E25" t="s">
         <v>32</v>
@@ -2209,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
+      <c r="A26" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="10">
-        <v>4516636</v>
+      <c r="D26" s="8">
+        <v>47682495</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -2238,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>117</v>
+      <c r="A27" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="10">
-        <v>72152627</v>
+      <c r="D27" s="8">
+        <v>44884055</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -2267,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>118</v>
+      <c r="A28" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="10">
-        <v>81189414</v>
+      <c r="D28" s="8">
+        <v>35658468</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
@@ -2296,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>119</v>
+      <c r="A29" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="10">
-        <v>80672735</v>
+      <c r="D29" s="8">
+        <v>44945344</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -2325,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>120</v>
+      <c r="A30" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="10">
-        <v>33936283</v>
+      <c r="D30" s="8">
+        <v>47913896</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
@@ -2354,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>121</v>
+      <c r="A31" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="10">
-        <v>37416376</v>
+      <c r="D31" s="8">
+        <v>91270608</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -2383,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>122</v>
+      <c r="A32" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="10">
-        <v>57591490</v>
+      <c r="D32" s="8">
+        <v>49332136</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
@@ -2412,21 +2362,21 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>123</v>
+      <c r="A33" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="10">
-        <v>72603300</v>
+      <c r="D33" s="8">
+        <v>56325333</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
@@ -2441,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>124</v>
+      <c r="A34" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="10">
-        <v>34066194</v>
+      <c r="D34" s="8">
+        <v>99665507</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
@@ -2470,21 +2420,21 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>125</v>
+      <c r="A35" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="10">
-        <v>27728833</v>
+      <c r="D35" s="8">
+        <v>95737683</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
@@ -2499,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>126</v>
+      <c r="A36" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="10">
-        <v>48593880</v>
+      <c r="D36" s="8">
+        <v>17490763</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -2528,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>127</v>
+      <c r="A37" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="10">
-        <v>46497022</v>
+      <c r="D37" s="8">
+        <v>96772313</v>
       </c>
       <c r="E37" t="s">
         <v>44</v>
@@ -2557,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>128</v>
+      <c r="A38" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
-        <v>98231335</v>
+      <c r="D38" s="8">
+        <v>56084255</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
@@ -2586,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>129</v>
+      <c r="A39" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="10">
-        <v>7101665</v>
+      <c r="D39" s="8">
+        <v>33996551</v>
       </c>
       <c r="E39" t="s">
         <v>46</v>
@@ -2615,21 +2565,21 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>130</v>
+      <c r="A40" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="10">
-        <v>49869441</v>
+      <c r="D40" s="8">
+        <v>45734311</v>
       </c>
       <c r="E40" t="s">
         <v>47</v>
@@ -2644,21 +2594,21 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
+      <c r="A41" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="10">
-        <v>69849104</v>
+      <c r="D41" s="8">
+        <v>68096366</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
@@ -2673,21 +2623,21 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
+      <c r="A42" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="10">
-        <v>21351350</v>
+      <c r="D42" s="8">
+        <v>78608243</v>
       </c>
       <c r="E42" t="s">
         <v>49</v>
@@ -2702,21 +2652,21 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>133</v>
+      <c r="A43" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
-        <v>1575552</v>
+      <c r="D43" s="8">
+        <v>15574749</v>
       </c>
       <c r="E43" t="s">
         <v>50</v>
@@ -2731,21 +2681,21 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>134</v>
+      <c r="A44" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="10">
-        <v>60478683</v>
+      <c r="D44" s="8">
+        <v>76953527</v>
       </c>
       <c r="E44" t="s">
         <v>51</v>
@@ -2760,21 +2710,21 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>135</v>
+      <c r="A45" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="10">
-        <v>89058304</v>
+      <c r="D45" s="8">
+        <v>44651818</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>
@@ -2789,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
+      <c r="A46" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="10">
-        <v>81294390</v>
+      <c r="D46" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="E46" t="s">
         <v>53</v>
@@ -2818,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>137</v>
+      <c r="A47" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="10">
-        <v>39777494</v>
+      <c r="D47" s="8">
+        <v>98811798</v>
       </c>
       <c r="E47" t="s">
         <v>54</v>
@@ -2847,21 +2797,21 @@
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>138</v>
+      <c r="A48" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="10">
-        <v>80320760</v>
+      <c r="D48" s="8">
+        <v>17987155</v>
       </c>
       <c r="E48" t="s">
         <v>55</v>
@@ -2876,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>139</v>
+      <c r="A49" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="10">
-        <v>42717400</v>
+      <c r="D49" s="8">
+        <v>19409131</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -2905,21 +2855,21 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>140</v>
+      <c r="A50" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" s="10">
-        <v>20655231</v>
+      <c r="D50" s="8">
+        <v>66647539</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -2934,21 +2884,21 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>141</v>
+      <c r="A51" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" s="10">
-        <v>24253278</v>
+      <c r="D51" s="8">
+        <v>47445028</v>
       </c>
       <c r="E51" t="s">
         <v>58</v>
@@ -2963,21 +2913,21 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>142</v>
+      <c r="A52" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="10">
-        <v>60661624</v>
+      <c r="D52" s="8">
+        <v>25241902</v>
       </c>
       <c r="E52" t="s">
         <v>59</v>
@@ -2992,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>143</v>
+      <c r="A53" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" s="10">
-        <v>26292839</v>
+      <c r="D53" s="8">
+        <v>10545604</v>
       </c>
       <c r="E53" t="s">
         <v>60</v>
@@ -3021,21 +2971,21 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>144</v>
+      <c r="A54" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="10">
-        <v>48809033</v>
+      <c r="D54" s="8">
+        <v>71171114</v>
       </c>
       <c r="E54" t="s">
         <v>61</v>
@@ -3050,21 +3000,21 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>145</v>
+      <c r="A55" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" s="10">
-        <v>95680325</v>
+      <c r="D55" s="8">
+        <v>29529878</v>
       </c>
       <c r="E55" t="s">
         <v>62</v>
@@ -3079,21 +3029,21 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>146</v>
+      <c r="A56" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="10">
-        <v>70166165</v>
+      <c r="D56" s="8">
+        <v>39959097</v>
       </c>
       <c r="E56" t="s">
         <v>63</v>
@@ -3108,21 +3058,21 @@
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>147</v>
+      <c r="A57" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="10">
-        <v>45542867</v>
+      <c r="D57" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="E57" t="s">
         <v>64</v>
@@ -3137,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>148</v>
+      <c r="A58" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="10">
-        <v>69675381</v>
+      <c r="D58" s="8">
+        <v>64445873</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>65</v>
@@ -3166,27 +3116,27 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>149</v>
+      <c r="A59" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="10">
-        <v>97310114</v>
+      <c r="D59" s="8">
+        <v>19473950</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -3198,24 +3148,24 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>150</v>
+      <c r="A60" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="10">
-        <v>81765974</v>
+      <c r="D60" s="8">
+        <v>45844441</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>66</v>
@@ -3230,24 +3180,24 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>151</v>
+      <c r="A61" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="10">
-        <v>76357752</v>
+      <c r="D61" s="8">
+        <v>38869085</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>67</v>
@@ -3262,27 +3212,27 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>152</v>
+      <c r="A62" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="10">
-        <v>2077619</v>
+      <c r="D62" s="8">
+        <v>57771649</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -3294,27 +3244,24 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>241</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>153</v>
+      <c r="A63" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="10">
-        <v>44364699</v>
+      <c r="D63" s="8">
+        <v>54507578</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -3326,27 +3273,27 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>154</v>
+      <c r="A64" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="10">
-        <v>76497632</v>
+      <c r="D64" s="8">
+        <v>23255980</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -3358,27 +3305,27 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>203</v>
+      <c r="A65" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="10">
-        <v>46868161</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>198</v>
+      <c r="D65" s="8">
+        <v>21385381</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -3390,24 +3337,24 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>155</v>
+      <c r="A66" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="10">
-        <v>18559613</v>
+      <c r="D66" s="8">
+        <v>70915336</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>71</v>
@@ -3422,24 +3369,24 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>156</v>
+      <c r="A67" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="10">
-        <v>41674808</v>
+      <c r="D67" s="8">
+        <v>64170891</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>72</v>
@@ -3454,27 +3401,27 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>157</v>
+      <c r="A68" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="10">
-        <v>5139991</v>
+      <c r="D68" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -3486,27 +3433,27 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>158</v>
+      <c r="A69" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="10">
-        <v>63123138</v>
+      <c r="D69" s="8">
+        <v>62993180</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -3518,24 +3465,24 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>159</v>
+      <c r="A70" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="10">
-        <v>23479239</v>
+      <c r="D70" s="8">
+        <v>98834980</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>74</v>
@@ -3550,27 +3497,27 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>160</v>
+      <c r="A71" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="10">
-        <v>11352861</v>
+      <c r="D71" s="8">
+        <v>42189268</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -3582,27 +3529,27 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>161</v>
+      <c r="A72" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="10">
-        <v>31361931</v>
+      <c r="D72" s="8">
+        <v>54237866</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -3614,27 +3561,27 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>162</v>
+      <c r="A73" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="10">
-        <v>93020326</v>
+      <c r="D73" s="8">
+        <v>33435968</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -3646,27 +3593,27 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>204</v>
+      <c r="A74" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="10">
-        <v>95376582</v>
+      <c r="D74" s="8">
+        <v>17478117</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3678,24 +3625,24 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>163</v>
+      <c r="A75" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="10">
-        <v>81952034</v>
+      <c r="D75" s="8">
+        <v>37114234</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>77</v>
@@ -3710,24 +3657,24 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>164</v>
+      <c r="A76" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="10">
-        <v>66530924</v>
+      <c r="D76" s="8">
+        <v>91313816</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>78</v>
@@ -3742,27 +3689,27 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>165</v>
+      <c r="A77" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="10">
-        <v>41491837</v>
+      <c r="D77" s="8">
+        <v>79059622</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -3774,27 +3721,27 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>166</v>
+      <c r="A78" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="10">
-        <v>76730752</v>
+      <c r="D78" s="8">
+        <v>63123104</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -3806,91 +3753,85 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>167</v>
+      <c r="A79" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="10">
-        <v>96560776</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="8">
+        <v>49604694</v>
+      </c>
+      <c r="E79" t="s">
+        <v>311</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G79" s="3">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>258</v>
-      </c>
-      <c r="J79">
-        <v>2</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>207</v>
+      <c r="A80" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="10">
-        <v>18712761</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>208</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>70353874</v>
+      </c>
+      <c r="E80" t="s">
+        <v>312</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G80" s="3">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>259</v>
-      </c>
-      <c r="J80">
-        <v>2</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>290</v>
+      <c r="A81" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="8">
+        <v>17822108</v>
+      </c>
+      <c r="E81" t="s">
         <v>313</v>
-      </c>
-      <c r="E81" t="s">
-        <v>342</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -3902,24 +3843,24 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>291</v>
+      <c r="A82" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="8">
+        <v>72575010</v>
+      </c>
+      <c r="E82" t="s">
         <v>314</v>
-      </c>
-      <c r="E82" t="s">
-        <v>343</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -3931,24 +3872,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>292</v>
+      <c r="A83" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" t="s">
         <v>315</v>
-      </c>
-      <c r="E83" t="s">
-        <v>344</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -3960,24 +3901,24 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>293</v>
+      <c r="A84" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="8">
+        <v>18143572</v>
+      </c>
+      <c r="E84" t="s">
         <v>316</v>
-      </c>
-      <c r="E84" t="s">
-        <v>345</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -3989,24 +3930,24 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>294</v>
+      <c r="A85" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="8">
+        <v>40062994</v>
+      </c>
+      <c r="E85" t="s">
         <v>317</v>
-      </c>
-      <c r="E85" t="s">
-        <v>346</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -4018,24 +3959,24 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>295</v>
+      <c r="A86" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="8">
+        <v>23224568</v>
+      </c>
+      <c r="E86" t="s">
         <v>318</v>
-      </c>
-      <c r="E86" t="s">
-        <v>347</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -4047,24 +3988,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>296</v>
+      <c r="A87" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="8">
+        <v>13099361</v>
+      </c>
+      <c r="E87" t="s">
         <v>319</v>
-      </c>
-      <c r="E87" t="s">
-        <v>348</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -4076,24 +4017,24 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>297</v>
+      <c r="A88" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="8">
+        <v>99523672</v>
+      </c>
+      <c r="E88" t="s">
         <v>320</v>
-      </c>
-      <c r="E88" t="s">
-        <v>349</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -4105,24 +4046,24 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>298</v>
+      <c r="A89" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>321</v>
+      <c r="D89" s="8">
+        <v>28505657</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -4134,24 +4075,24 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>299</v>
+      <c r="A90" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>322</v>
+      <c r="D90" s="8">
+        <v>44941227</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -4163,24 +4104,24 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>168</v>
+      <c r="A91" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>323</v>
+      <c r="D91" s="8">
+        <v>17135110</v>
       </c>
       <c r="E91" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -4192,24 +4133,24 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>169</v>
+      <c r="A92" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>324</v>
+      <c r="D92" s="8">
+        <v>17229275</v>
       </c>
       <c r="E92" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -4221,24 +4162,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>170</v>
+      <c r="A93" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>325</v>
+      <c r="D93" s="8">
+        <v>92456762</v>
       </c>
       <c r="E93" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -4250,24 +4191,24 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>171</v>
+      <c r="A94" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>326</v>
+      <c r="D94" s="8">
+        <v>62960609</v>
       </c>
       <c r="E94" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4279,24 +4220,24 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>172</v>
+      <c r="A95" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>310</v>
+      <c r="D95" s="8">
+        <v>37573347</v>
       </c>
       <c r="E95" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -4308,24 +4249,24 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>173</v>
+      <c r="A96" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>327</v>
+      <c r="D96" s="8">
+        <v>11949066</v>
       </c>
       <c r="E96" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -4337,24 +4278,24 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>174</v>
+      <c r="A97" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>328</v>
+      <c r="D97" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="E97" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -4366,24 +4307,24 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>175</v>
+      <c r="A98" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>329</v>
+      <c r="D98" s="8">
+        <v>61672270</v>
       </c>
       <c r="E98" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -4395,82 +4336,82 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>176</v>
+      <c r="A99" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>330</v>
+      <c r="D99" s="8">
+        <v>25785750</v>
       </c>
       <c r="E99" t="s">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G99" s="3">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>177</v>
+      <c r="A100" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>331</v>
+      <c r="D100" s="8">
+        <v>23815650</v>
       </c>
       <c r="E100" t="s">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="3">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>178</v>
+      <c r="A101" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
-      <c r="D101" s="10">
-        <v>22525202</v>
+      <c r="D101" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F101">
         <v>16</v>
@@ -4482,24 +4423,24 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>179</v>
+      <c r="A102" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
-      <c r="D102" s="10">
-        <v>98923842</v>
+      <c r="D102" s="8">
+        <v>28416987</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F102">
         <v>16</v>
@@ -4511,24 +4452,24 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>180</v>
+      <c r="A103" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
-      <c r="D103" s="10">
-        <v>75212742</v>
+      <c r="D103" s="8">
+        <v>10187156</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F103">
         <v>16</v>
@@ -4540,24 +4481,24 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>181</v>
+      <c r="A104" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
-      <c r="D104" s="10">
-        <v>37675836</v>
+      <c r="D104" s="8">
+        <v>55212263</v>
       </c>
       <c r="E104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F104">
         <v>16</v>
@@ -4569,24 +4510,24 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>182</v>
+      <c r="A105" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105" s="10">
-        <v>46874412</v>
+      <c r="D105" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F105">
         <v>16</v>
@@ -4598,24 +4539,24 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>183</v>
+      <c r="A106" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>311</v>
+      <c r="D106" s="8">
+        <v>20895623</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F106">
         <v>16</v>
@@ -4627,24 +4568,24 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>184</v>
+      <c r="A107" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
-      <c r="D107" s="10">
-        <v>39823023</v>
+      <c r="D107" s="8">
+        <v>67681383</v>
       </c>
       <c r="E107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F107">
         <v>16</v>
@@ -4656,24 +4597,24 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>185</v>
+      <c r="A108" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
-      <c r="D108" s="10">
-        <v>66301106</v>
+      <c r="D108" s="8">
+        <v>21883351</v>
       </c>
       <c r="E108" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F108">
         <v>16</v>
@@ -4685,82 +4626,82 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>186</v>
+      <c r="A109" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
-      <c r="D109" s="10">
-        <v>41179047</v>
+      <c r="D109" s="8">
+        <v>15744077</v>
       </c>
       <c r="E109" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G109" s="3">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>187</v>
+      <c r="A110" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
-      <c r="D110" s="10">
-        <v>38108918</v>
+      <c r="D110" s="8">
+        <v>75234560</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G110" s="3">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>188</v>
+      <c r="A111" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
-      <c r="D111" s="10">
-        <v>61023692</v>
+      <c r="D111" s="8">
+        <v>77121945</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F111">
         <v>25</v>
@@ -4772,24 +4713,24 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>189</v>
+      <c r="A112" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
-      <c r="D112" s="10">
-        <v>87564015</v>
+      <c r="D112" s="8">
+        <v>62415881</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F112">
         <v>25</v>
@@ -4801,24 +4742,24 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>190</v>
+      <c r="A113" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
-      <c r="D113" s="10">
-        <v>78487124</v>
+      <c r="D113" s="8">
+        <v>35568969</v>
       </c>
       <c r="E113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F113">
         <v>25</v>
@@ -4830,24 +4771,24 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>191</v>
+      <c r="A114" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
-      <c r="D114" s="10">
-        <v>42813248</v>
+      <c r="D114" s="8">
+        <v>95108592</v>
       </c>
       <c r="E114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F114">
         <v>25</v>
@@ -4859,24 +4800,24 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>192</v>
+      <c r="A115" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>312</v>
+      <c r="D115" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="E115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F115">
         <v>25</v>
@@ -4888,24 +4829,24 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>193</v>
+      <c r="A116" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
-      <c r="D116" s="10">
-        <v>81199577</v>
+      <c r="D116" s="8">
+        <v>79242080</v>
       </c>
       <c r="E116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F116">
         <v>25</v>
@@ -4917,24 +4858,24 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>194</v>
+      <c r="A117" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
-      <c r="D117" s="10">
-        <v>65840612</v>
+      <c r="D117" s="8">
+        <v>20640380</v>
       </c>
       <c r="E117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F117">
         <v>25</v>
@@ -4946,24 +4887,24 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>195</v>
+      <c r="A118" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
-      <c r="D118" s="10">
-        <v>19901803</v>
+      <c r="D118" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="E118" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F118">
         <v>25</v>
@@ -4975,65 +4916,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>196</v>
-      </c>
-      <c r="B119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119" s="10">
-        <v>65082633</v>
-      </c>
-      <c r="E119" t="s">
-        <v>89</v>
-      </c>
-      <c r="F119">
-        <v>25</v>
-      </c>
-      <c r="G119" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>197</v>
-      </c>
-      <c r="B120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120" s="10">
-        <v>70937939</v>
-      </c>
-      <c r="E120" t="s">
-        <v>90</v>
-      </c>
-      <c r="F120">
-        <v>25</v>
-      </c>
-      <c r="G120" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
